--- a/ExperimentalData/MotorParameterData.xlsx
+++ b/ExperimentalData/MotorParameterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmvsu\OneDrive\Documents\School Winter 2018\elec 391\Laser-Light-Show\ExperimentalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF34AC4-BB33-4F3D-821E-326484AE3ABA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E64201C-E9A5-43A6-9517-2035739AD1F4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="19200" windowHeight="7188" activeTab="1" xr2:uid="{453B5560-B02B-49E5-A604-6A12C721B6F9}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="19200" windowHeight="7188" activeTab="1" xr2:uid="{453B5560-B02B-49E5-A604-6A12C721B6F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -32,17 +32,17 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{72CF1FF9-65BA-45F7-B234-F7907308AC09}" keepAlive="1" name="Query - BackEMFData-March3" description="Connection to the 'BackEMFData-March3' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - BackEMFData-March3" description="Connection to the 'BackEMFData-March3' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=BackEMFData-March3;Extended Properties=&quot;&quot;" command="SELECT * FROM [BackEMFData-March3]"/>
   </connection>
-  <connection id="2" xr16:uid="{F769D664-9816-40A3-8354-5F8617A02C51}" keepAlive="1" name="Query - March3_data" description="Connection to the 'March3_data' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - March3_data" description="Connection to the 'March3_data' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=March3_data;Extended Properties=&quot;&quot;" command="SELECT * FROM [March3_data]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>Column1</t>
   </si>
@@ -77,21 +77,6 @@
     <t>or:</t>
   </si>
   <si>
-    <t>.1648 ticks/ms * 1.8*2 degrees/tick * 1/.001 ms/sec</t>
-  </si>
-  <si>
-    <t>Ke = .04/593.28</t>
-  </si>
-  <si>
-    <t>Ke = .0000674 V/(degrees/sec)</t>
-  </si>
-  <si>
-    <t>593.28 deg/sec * 1 rotation/360deg *60 sec/1 min</t>
-  </si>
-  <si>
-    <t>Ke = 98.88 V/RPM</t>
-  </si>
-  <si>
     <t>Assume Voltage = 10V, Resistance = 2.25 ohms</t>
   </si>
   <si>
@@ -99,18 +84,6 @@
   </si>
   <si>
     <t>Linear Acceleration = .8507 (ticks/ms^2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.8507 ticks/ms^2 * 1.8*2 degrees/tick </t>
-  </si>
-  <si>
-    <t>Acceleration =  3.06252 deg/ms^2</t>
-  </si>
-  <si>
-    <t>acc. =3,062,520 deg/sec^2</t>
-  </si>
-  <si>
-    <t>acc = 8507 rpm/sec^2</t>
   </si>
   <si>
     <t>acceleration torque = (max current)*(motor torque constant)</t>
@@ -125,22 +98,151 @@
     <t>in [lb*in]</t>
   </si>
   <si>
-    <t>acc = 53451.1 rad/sec^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inertia = (acceleration torque / acceleration in rad) </t>
-  </si>
-  <si>
     <t>torque constant = .0342 [lb*in/amp)</t>
   </si>
   <si>
     <t xml:space="preserve">Accell. Torque =4.44*.0342 </t>
   </si>
   <si>
-    <t>inertia = (.151848/5345.1)</t>
+    <t xml:space="preserve">.8507 ticks/ms^2 * 180/200 degrees/tick </t>
   </si>
   <si>
-    <t>intertia = .000028409</t>
+    <t>Acceleration =  .76563 deg/ms^2</t>
+  </si>
+  <si>
+    <t>acc. =765,630 deg/sec^2</t>
+  </si>
+  <si>
+    <t>acc = 2126.75 rpm/sec^2</t>
+  </si>
+  <si>
+    <t>acc = 13362.77 rad/sec^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inertia = (acceleration torque / accellr. in rad) </t>
+  </si>
+  <si>
+    <t>inertia = (.151848/13362.77)</t>
+  </si>
+  <si>
+    <t>intertia = .0000113635</t>
+  </si>
+  <si>
+    <t>18890.1 deg/sec</t>
+  </si>
+  <si>
+    <t>329.695 rad/sec</t>
+  </si>
+  <si>
+    <t>.1648 ticks/ms * (180/200) degrees/tick * 1/.001 ms/sec</t>
+  </si>
+  <si>
+    <t>deg/sec</t>
+  </si>
+  <si>
+    <t>Ke = .04/148.32</t>
+  </si>
+  <si>
+    <t>Ke = .00027 V/(degrees/sec)</t>
+  </si>
+  <si>
+    <t>148.32 deg/sec * 1 rotation/360deg *60 sec/1 min</t>
+  </si>
+  <si>
+    <t>148.32*(0.0174533) rad/degree</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Ke = .05/24.72 RPM</t>
+  </si>
+  <si>
+    <t>Ke = .002023 V/RPM</t>
+  </si>
+  <si>
+    <t>rad/sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ke = .04/2.589 </t>
+  </si>
+  <si>
+    <t>Ke = .001545 V/(rad/sec)</t>
+  </si>
+  <si>
+    <t>accell torque = .2*.0193</t>
+  </si>
+  <si>
+    <t>N*m</t>
+  </si>
+  <si>
+    <t>kg*m^2/rad</t>
+  </si>
+  <si>
+    <t>lin accel.</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>ticks/ms^2</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>lin Acc</t>
+  </si>
+  <si>
+    <t>lin acc</t>
+  </si>
+  <si>
+    <t>deg/sec^2</t>
+  </si>
+  <si>
+    <t>rpm/sec</t>
+  </si>
+  <si>
+    <t>rad/sec^2</t>
+  </si>
+  <si>
+    <t>inertia</t>
+  </si>
+  <si>
+    <t>friction=Kt*I/radial speed</t>
+  </si>
+  <si>
+    <t>friction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current </t>
+  </si>
+  <si>
+    <t>torque constt</t>
+  </si>
+  <si>
+    <t>N*m/A</t>
+  </si>
+  <si>
+    <t>Lin Speed =</t>
+  </si>
+  <si>
+    <t>13.355 ticks/ms *(180/200 deg/tick)*(1000ms/sec)</t>
+  </si>
+  <si>
+    <t>lin Speed</t>
+  </si>
+  <si>
+    <t>ticks/ms</t>
+  </si>
+  <si>
+    <t>lin speed</t>
   </si>
 </sst>
 </file>
@@ -156,15 +258,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,13 +280,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,6 +856,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Radial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Speed vs Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -843,6 +996,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="152"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123</c:v>
+                </c:pt>
                 <c:pt idx="15">
                   <c:v>136</c:v>
                 </c:pt>
@@ -902,6 +1100,357 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1578</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1622</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1754</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,59 +1461,44 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="152"/>
+                <c:pt idx="6">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.9523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.2857142857142865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.954545454545455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.380952380952381</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14.238095238095237</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-14.772727272727273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15.576923076923077</c:v>
+                </c:pt>
                 <c:pt idx="16">
-                  <c:v>-58.52</c:v>
+                  <c:v>-16.760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-66.56</c:v>
+                  <c:v>-18.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-76.72</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-89.291666666666671</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-95.04</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-101.96153846153847</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-116.36</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-131.45833333333334</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-137.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-142.11538461538461</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-158.44</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-176.625</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-180.84</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-191.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-202.92</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-206.19230769230768</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-225.28</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-244.91666666666666</c:v>
+                  <c:v>-19.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,6 +1525,7 @@
         <c:axId val="925952784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1053,6 +1588,7 @@
         <c:axId val="925952456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1108,6 +1644,445 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="925952784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Position</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> vs Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$9:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$9:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3983-42ED-9646-C197507AF137}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833958760"/>
+        <c:axId val="833958104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833958760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833958104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833958104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833958760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1243,6 +2218,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1760,6 +2775,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2321,15 +3852,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2354,11 +3885,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7117DACE-D9C9-4890-B59A-B19781798F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{3D9AD50F-C5A6-487E-8B33-113E652FCA61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -2371,11 +3938,12 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{040B24A7-1D4A-4147-AC83-BA1B471FC893}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
-    <queryTableFields count="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="4" unboundColumnsRight="1">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -2395,11 +3963,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B266B31A-D023-4B85-BD61-7D4713169160}" name="March3_data" displayName="March3_data" ref="A1:B154" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B154" xr:uid="{8F5AD36D-6162-47DC-A929-B5C45B554706}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B266B31A-D023-4B85-BD61-7D4713169160}" name="March3_data" displayName="March3_data" ref="A1:C154" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C154" xr:uid="{8F5AD36D-6162-47DC-A929-B5C45B554706}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8E69A602-E161-4B9D-B6B9-9DF3806B4852}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{858899F2-B1DA-490D-84A0-7E1A7BAF7CEA}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{C32299E6-FED0-4F28-AD4D-E9165C6F1326}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2704,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C8CA1B-CBD3-405C-825C-4B8AE89CEF16}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="K14" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2820,7 +4389,7 @@
         <v>7628</v>
       </c>
       <c r="P7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2837,8 +4406,11 @@
         <v>7688</v>
       </c>
       <c r="P8">
-        <f>0.1648*1.8*2*(1/0.001)</f>
-        <v>593.28</v>
+        <f>0.1648*(180/200)*(1/0.001)</f>
+        <v>148.32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2917,11 +4489,11 @@
         <v>7990</v>
       </c>
       <c r="P13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="R13">
-        <f>0.04/593.28</f>
-        <v>6.7421790722761604E-5</v>
+        <f>0.04/148.32</f>
+        <v>2.6968716289104642E-4</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2938,7 +4510,7 @@
         <v>8050</v>
       </c>
       <c r="P14" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2972,7 +4544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>-283</v>
       </c>
@@ -2986,10 +4558,10 @@
         <v>8233</v>
       </c>
       <c r="P17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>-283</v>
       </c>
@@ -3003,11 +4575,14 @@
         <v>8293</v>
       </c>
       <c r="P18">
-        <f>(593.28*60)/360</f>
-        <v>98.879999999999981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <f>(148.32*60)/360</f>
+        <v>24.719999999999995</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>-283</v>
       </c>
@@ -3021,10 +4596,10 @@
         <v>8354</v>
       </c>
       <c r="P19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>-284</v>
       </c>
@@ -3043,8 +4618,11 @@
       <c r="H20">
         <v>-284</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>-289</v>
       </c>
@@ -3064,7 +4642,7 @@
         <v>-289</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>-298</v>
       </c>
@@ -3083,8 +4661,11 @@
       <c r="H22">
         <v>-298</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>-314</v>
       </c>
@@ -3103,8 +4684,11 @@
       <c r="H23">
         <v>-314</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>-323</v>
       </c>
@@ -3123,8 +4707,15 @@
       <c r="H24">
         <v>-323</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P24">
+        <f>148.32*(0.0174533)</f>
+        <v>2.588673456</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>-334</v>
       </c>
@@ -3143,8 +4734,11 @@
       <c r="H25">
         <v>-334</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>-343</v>
       </c>
@@ -3163,8 +4757,11 @@
       <c r="H26">
         <v>-343</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>-358</v>
       </c>
@@ -3184,7 +4781,7 @@
         <v>-358</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>-365</v>
       </c>
@@ -3204,7 +4801,7 @@
         <v>-365</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>-372</v>
       </c>
@@ -3224,7 +4821,7 @@
         <v>-372</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>-384</v>
       </c>
@@ -3244,7 +4841,7 @@
         <v>-384</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>-395</v>
       </c>
@@ -3264,7 +4861,7 @@
         <v>-395</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>-403</v>
       </c>
@@ -3614,155 +5211,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C796C4-C56C-41DE-8C1B-9F60B7546137}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="10.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>11</v>
       </c>
       <c r="B6">
         <v>-20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
         <v>-46</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>29</v>
       </c>
       <c r="B8">
         <v>-84</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>38</v>
       </c>
       <c r="B9">
         <v>-132</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-132</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E6:E69" si="0">(D10-D8)/(C10-C8)</f>
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>49</v>
       </c>
       <c r="B10">
         <v>-198</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-198</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-6.9523809523809526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>59</v>
       </c>
       <c r="B11">
         <v>-278</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-278</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-8.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>69</v>
       </c>
       <c r="B12">
         <v>-370</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-370</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-9.2857142857142865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>80</v>
       </c>
       <c r="B13">
         <v>-473</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-473</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-9.954545454545455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>91</v>
       </c>
       <c r="B14">
         <v>-589</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-589</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-12.380952380952381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>101</v>
       </c>
       <c r="B15">
         <v>-733</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15">
+        <v>101</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-733</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-14.238095238095237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>112</v>
       </c>
       <c r="B16">
         <v>-888</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16">
+        <v>112</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-888</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-14.772727272727273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>123</v>
       </c>
       <c r="B17">
         <v>-1058</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17">
+        <v>123</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-1058</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-14.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>136</v>
       </c>
@@ -3772,11 +5505,15 @@
       <c r="C18">
         <v>136</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>-1245</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-15.576923076923077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>149</v>
       </c>
@@ -3786,15 +5523,15 @@
       <c r="C19">
         <v>149</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>-1463</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E4:E67" si="0">(D19/(C20-C18))</f>
-        <v>-58.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>-16.760000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>161</v>
       </c>
@@ -3804,15 +5541,15 @@
       <c r="C20">
         <v>161</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>-1664</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-66.56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>-18.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>174</v>
       </c>
@@ -3822,15 +5559,15 @@
       <c r="C21">
         <v>174</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>-1918</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-76.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>-19.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>186</v>
       </c>
@@ -3840,15 +5577,11 @@
       <c r="C22">
         <v>186</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>-2143</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>-89.291666666666671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>198</v>
       </c>
@@ -3858,15 +5591,11 @@
       <c r="C23">
         <v>198</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>-2376</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>-95.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>211</v>
       </c>
@@ -3876,18 +5605,23 @@
       <c r="C24">
         <v>211</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>-2651</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>-101.96153846153847</v>
-      </c>
       <c r="H24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="O24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>224</v>
       </c>
@@ -3897,18 +5631,23 @@
       <c r="C25">
         <v>224</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>-2909</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>-116.36</v>
-      </c>
       <c r="H25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="O25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>236</v>
       </c>
@@ -3918,18 +5657,23 @@
       <c r="C26">
         <v>236</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>-3155</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>-131.45833333333334</v>
-      </c>
       <c r="H26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26">
+        <v>0.2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>248</v>
       </c>
@@ -3939,15 +5683,11 @@
       <c r="C27">
         <v>248</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>-3427</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>-137.08000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>261</v>
       </c>
@@ -3957,18 +5697,24 @@
       <c r="C28">
         <v>261</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>-3695</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>-142.11538461538461</v>
-      </c>
       <c r="H28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28">
+        <f>P24*(180/200)*1000*1000</f>
+        <v>87929.999999999985</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>274</v>
       </c>
@@ -3978,19 +5724,25 @@
       <c r="C29">
         <v>274</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>-3961</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>-158.44</v>
-      </c>
       <c r="H29">
-        <f>0.8507*1.8*2</f>
-        <v>3.0625200000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f>0.8507*180/200</f>
+        <v>0.76563000000000003</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29">
+        <f>P28*60/360</f>
+        <v>14654.999999999998</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>286</v>
       </c>
@@ -4000,18 +5752,24 @@
       <c r="C30">
         <v>286</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>-4239</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>-176.625</v>
-      </c>
       <c r="H30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30">
+        <f>P28*(0.0174533)</f>
+        <v>1534.6686689999999</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>298</v>
       </c>
@@ -4021,19 +5779,15 @@
       <c r="C31">
         <v>298</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>-4521</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>-180.84</v>
-      </c>
       <c r="H31">
-        <f>3.06252/(0.001*0.001)</f>
-        <v>3062520.0000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f>0.76563/(0.001*0.001)</f>
+        <v>765630.00000000012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>311</v>
       </c>
@@ -4043,18 +5797,14 @@
       <c r="C32">
         <v>311</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>-4795</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>-191.8</v>
-      </c>
       <c r="H32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>323</v>
       </c>
@@ -4064,19 +5814,15 @@
       <c r="C33">
         <v>323</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>-5073</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>-202.92</v>
-      </c>
       <c r="H33">
-        <f>3062520/360</f>
-        <v>8507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f>765630/360</f>
+        <v>2126.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>336</v>
       </c>
@@ -4086,18 +5832,14 @@
       <c r="C34">
         <v>336</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>-5361</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>-206.19230769230768</v>
-      </c>
       <c r="H34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>349</v>
       </c>
@@ -4107,18 +5849,15 @@
       <c r="C35">
         <v>349</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>-5632</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>-225.28</v>
-      </c>
-      <c r="H35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35">
+        <f>765630*(0.0174533)</f>
+        <v>13362.770079000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>361</v>
       </c>
@@ -4128,15 +5867,14 @@
       <c r="C36">
         <v>361</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>-5878</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>-244.91666666666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>373</v>
       </c>
@@ -4146,67 +5884,124 @@
       <c r="C37">
         <v>373</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>-6125</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>385</v>
       </c>
       <c r="B38">
         <v>-6347</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38">
+        <v>385</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-6347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>399</v>
       </c>
       <c r="B39">
         <v>-6516</v>
       </c>
+      <c r="C39">
+        <v>399</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-6516</v>
+      </c>
       <c r="H39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39">
+        <v>0.2</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>411</v>
       </c>
       <c r="B40">
         <v>-6697</v>
       </c>
+      <c r="C40">
+        <v>411</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-6697</v>
+      </c>
       <c r="H40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>423</v>
       </c>
       <c r="B41">
         <v>-6897</v>
       </c>
+      <c r="C41">
+        <v>423</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-6897</v>
+      </c>
       <c r="H41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>436</v>
       </c>
       <c r="B42">
         <v>-7070</v>
       </c>
+      <c r="C42">
+        <v>436</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-7070</v>
+      </c>
       <c r="H42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>448</v>
       </c>
       <c r="B43">
+        <v>-7226</v>
+      </c>
+      <c r="C43">
+        <v>448</v>
+      </c>
+      <c r="D43" s="3">
         <v>-7226</v>
       </c>
       <c r="H43">
@@ -4214,910 +6009,1655 @@
         <v>0.15184800000000001</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="P43">
+        <f>0.2*0.0193</f>
+        <v>3.8600000000000006E-3</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>460</v>
       </c>
       <c r="B44">
         <v>-7407</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44">
+        <v>460</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-7407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>474</v>
       </c>
       <c r="B45">
         <v>-7585</v>
       </c>
+      <c r="C45">
+        <v>474</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-7585</v>
+      </c>
       <c r="H45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>486</v>
       </c>
       <c r="B46">
         <v>-7712</v>
       </c>
+      <c r="C46">
+        <v>486</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-7712</v>
+      </c>
       <c r="H46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="P46">
+        <f>P43/P30</f>
+        <v>2.5152008886160436E-6</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>498</v>
       </c>
       <c r="B47">
         <v>-7880</v>
       </c>
+      <c r="C47">
+        <v>498</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-7880</v>
+      </c>
       <c r="H47">
-        <f>0.151848/5345.1</f>
-        <v>2.840882303418084E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f>0.151848/13362.77</f>
+        <v>1.1363512205927364E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>510</v>
       </c>
       <c r="B48">
         <v>-8051</v>
       </c>
+      <c r="C48">
+        <v>510</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-8051</v>
+      </c>
       <c r="H48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="O48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>523</v>
       </c>
       <c r="B49">
         <v>-8180</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49">
+        <v>523</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-8180</v>
+      </c>
+      <c r="O49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49">
+        <f>(P40*P39)/N67</f>
+        <v>1.8539051438535455E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>536</v>
       </c>
       <c r="B50">
         <v>-8339</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50">
+        <v>536</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-8339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>548</v>
       </c>
       <c r="B51">
         <v>-8519</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51">
+        <v>548</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-8519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>561</v>
       </c>
       <c r="B52">
         <v>-8660</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52">
+        <v>561</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-8660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>573</v>
       </c>
       <c r="B53">
         <v>-8792</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53">
+        <v>573</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-8792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>585</v>
       </c>
       <c r="B54">
         <v>-8971</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54">
+        <v>585</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-8971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>598</v>
       </c>
       <c r="B55">
         <v>-9122</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55">
+        <v>598</v>
+      </c>
+      <c r="D55" s="3">
+        <v>-9122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>611</v>
       </c>
       <c r="B56">
         <v>-9248</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56">
+        <v>611</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-9248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>623</v>
       </c>
       <c r="B57">
         <v>-9412</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57">
+        <v>623</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-9412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>635</v>
       </c>
       <c r="B58">
         <v>-9582</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58">
+        <v>635</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-9582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>648</v>
       </c>
       <c r="B59">
         <v>-9704</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59">
+        <v>648</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-9704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>660</v>
       </c>
       <c r="B60">
         <v>-9871</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60">
+        <v>660</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-9871</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>673</v>
       </c>
       <c r="B61">
         <v>-10044</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61">
+        <v>673</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-10044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>687</v>
       </c>
       <c r="B62">
         <v>-10170</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62">
+        <v>687</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-10170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>700</v>
       </c>
       <c r="B63">
         <v>-10355</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63">
+        <v>700</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-10355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>713</v>
       </c>
       <c r="B64">
         <v>-10506</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64">
+        <v>713</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-10506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>726</v>
       </c>
       <c r="B65">
         <v>-10669</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65">
+        <v>726</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-10669</v>
+      </c>
+      <c r="H65" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65">
+        <v>13.255000000000001</v>
+      </c>
+      <c r="M65" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65">
+        <v>13.255000000000001</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>741</v>
       </c>
       <c r="B66">
         <v>-10844</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66">
+        <v>741</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-10844</v>
+      </c>
+      <c r="H66" t="s">
+        <v>63</v>
+      </c>
+      <c r="M66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N66">
+        <f>N65*(180/200)*1000</f>
+        <v>11929.5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>754</v>
       </c>
       <c r="B67">
         <v>-10986</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67">
+        <v>754</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-10986</v>
+      </c>
+      <c r="H67">
+        <f>20.989*(180/200)*1000</f>
+        <v>18890.099999999999</v>
+      </c>
+      <c r="M67" t="s">
+        <v>66</v>
+      </c>
+      <c r="N67">
+        <f>N66*(0.0174533)</f>
+        <v>208.20914235000001</v>
+      </c>
+      <c r="O67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>767</v>
       </c>
       <c r="B68">
         <v>-11186</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68">
+        <v>767</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-11186</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>781</v>
       </c>
       <c r="B69">
         <v>-11320</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69">
+        <v>781</v>
+      </c>
+      <c r="D69" s="3">
+        <v>-11320</v>
+      </c>
+      <c r="H69">
+        <f>18890.1*(0.0174533)</f>
+        <v>329.69458233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>794</v>
       </c>
       <c r="B70">
         <v>-11504</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70">
+        <v>794</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-11504</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>808</v>
       </c>
       <c r="B71">
         <v>-11658</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71">
+        <v>808</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-11658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>822</v>
       </c>
       <c r="B72">
         <v>-11818</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72">
+        <v>822</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-11818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>835</v>
       </c>
       <c r="B73">
         <v>-12008</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73">
+        <v>835</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-12008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>848</v>
       </c>
       <c r="B74">
         <v>-12138</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74">
+        <v>848</v>
+      </c>
+      <c r="D74" s="2">
+        <v>-12138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>863</v>
       </c>
       <c r="B75">
         <v>-12332</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75">
+        <v>863</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-12332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>876</v>
       </c>
       <c r="B76">
         <v>-12464</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76">
+        <v>876</v>
+      </c>
+      <c r="D76" s="2">
+        <v>-12464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>889</v>
       </c>
       <c r="B77">
         <v>-12643</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77">
+        <v>889</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-12643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>903</v>
       </c>
       <c r="B78">
         <v>-12814</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78">
+        <v>903</v>
+      </c>
+      <c r="D78" s="2">
+        <v>-12814</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>916</v>
       </c>
       <c r="B79">
         <v>-12966</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79">
+        <v>916</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-12966</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>930</v>
       </c>
       <c r="B80">
         <v>-13168</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80">
+        <v>930</v>
+      </c>
+      <c r="D80" s="2">
+        <v>-13168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>944</v>
       </c>
       <c r="B81">
         <v>-13294</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81">
+        <v>944</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-13294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>957</v>
       </c>
       <c r="B82">
         <v>-13481</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82">
+        <v>957</v>
+      </c>
+      <c r="D82" s="2">
+        <v>-13481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>970</v>
       </c>
       <c r="B83">
         <v>-13628</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83">
+        <v>970</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-13628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>983</v>
       </c>
       <c r="B84">
         <v>-13805</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84">
+        <v>983</v>
+      </c>
+      <c r="D84" s="2">
+        <v>-13805</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>998</v>
       </c>
       <c r="B85">
         <v>-13983</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85">
+        <v>998</v>
+      </c>
+      <c r="D85" s="3">
+        <v>-13983</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>1011</v>
       </c>
       <c r="B86">
         <v>-14145</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86">
+        <v>1011</v>
+      </c>
+      <c r="D86" s="2">
+        <v>-14145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>1025</v>
       </c>
       <c r="B87">
         <v>-14326</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87">
+        <v>1025</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-14326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>1040</v>
       </c>
       <c r="B88">
         <v>-14509</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88">
+        <v>1040</v>
+      </c>
+      <c r="D88" s="2">
+        <v>-14509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>1054</v>
       </c>
       <c r="B89">
         <v>-14676</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89">
+        <v>1054</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-14676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>1070</v>
       </c>
       <c r="B90">
         <v>-14857</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C90">
+        <v>1070</v>
+      </c>
+      <c r="D90" s="2">
+        <v>-14857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>1084</v>
       </c>
       <c r="B91">
         <v>-15014</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91">
+        <v>1084</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-15014</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>1098</v>
       </c>
       <c r="B92">
         <v>-15219</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92">
+        <v>1098</v>
+      </c>
+      <c r="D92" s="2">
+        <v>-15219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>1113</v>
       </c>
       <c r="B93">
         <v>-15370</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93">
+        <v>1113</v>
+      </c>
+      <c r="D93" s="3">
+        <v>-15370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>1127</v>
       </c>
       <c r="B94">
         <v>-15579</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94">
+        <v>1127</v>
+      </c>
+      <c r="D94" s="2">
+        <v>-15579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>1142</v>
       </c>
       <c r="B95">
         <v>-15728</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95">
+        <v>1142</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-15728</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>1157</v>
       </c>
       <c r="B96">
         <v>-15934</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96">
+        <v>1157</v>
+      </c>
+      <c r="D96" s="2">
+        <v>-15934</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>1171</v>
       </c>
       <c r="B97">
         <v>-16084</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97">
+        <v>1171</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-16084</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>1185</v>
       </c>
       <c r="B98">
         <v>-16304</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98">
+        <v>1185</v>
+      </c>
+      <c r="D98" s="2">
+        <v>-16304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>1201</v>
       </c>
       <c r="B99">
         <v>-16447</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99">
+        <v>1201</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-16447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>1215</v>
       </c>
       <c r="B100">
         <v>-16655</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100">
+        <v>1215</v>
+      </c>
+      <c r="D100" s="2">
+        <v>-16655</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>1229</v>
       </c>
       <c r="B101">
         <v>-16809</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101">
+        <v>1229</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-16809</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>1244</v>
       </c>
       <c r="B102">
         <v>-17007</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102">
+        <v>1244</v>
+      </c>
+      <c r="D102" s="2">
+        <v>-17007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>1258</v>
       </c>
       <c r="B103">
         <v>-17179</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103">
+        <v>1258</v>
+      </c>
+      <c r="D103" s="3">
+        <v>-17179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>1273</v>
       </c>
       <c r="B104">
         <v>-17364</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104">
+        <v>1273</v>
+      </c>
+      <c r="D104" s="2">
+        <v>-17364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>1288</v>
       </c>
       <c r="B105">
         <v>-17545</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105">
+        <v>1288</v>
+      </c>
+      <c r="D105" s="3">
+        <v>-17545</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>1302</v>
       </c>
       <c r="B106">
         <v>-17718</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C106">
+        <v>1302</v>
+      </c>
+      <c r="D106" s="2">
+        <v>-17718</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>1316</v>
       </c>
       <c r="B107">
         <v>-17909</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C107">
+        <v>1316</v>
+      </c>
+      <c r="D107" s="3">
+        <v>-17909</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>1332</v>
       </c>
       <c r="B108">
         <v>-18078</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108">
+        <v>1332</v>
+      </c>
+      <c r="D108" s="2">
+        <v>-18078</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>1346</v>
       </c>
       <c r="B109">
         <v>-18285</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C109">
+        <v>1346</v>
+      </c>
+      <c r="D109" s="3">
+        <v>-18285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>1360</v>
       </c>
       <c r="B110">
         <v>-18444</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110">
+        <v>1360</v>
+      </c>
+      <c r="D110" s="2">
+        <v>-18444</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>1375</v>
       </c>
       <c r="B111">
         <v>-18659</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111">
+        <v>1375</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-18659</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>1389</v>
       </c>
       <c r="B112">
         <v>-18816</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C112">
+        <v>1389</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-18816</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>1404</v>
       </c>
       <c r="B113">
         <v>-19027</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C113">
+        <v>1404</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-19027</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>1419</v>
       </c>
       <c r="B114">
         <v>-19171</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C114">
+        <v>1419</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-19171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>1433</v>
       </c>
       <c r="B115">
         <v>-19394</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C115">
+        <v>1433</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-19394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>1447</v>
       </c>
       <c r="B116">
         <v>-19531</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116">
+        <v>1447</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-19531</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>1463</v>
       </c>
       <c r="B117">
         <v>-19742</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C117">
+        <v>1463</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-19742</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>1477</v>
       </c>
       <c r="B118">
         <v>-19897</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C118">
+        <v>1477</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-19897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>1491</v>
       </c>
       <c r="B119">
         <v>-20100</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119">
+        <v>1491</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-20100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>1506</v>
       </c>
       <c r="B120">
         <v>-20275</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C120">
+        <v>1506</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-20275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>1520</v>
       </c>
       <c r="B121">
         <v>-20463</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C121">
+        <v>1520</v>
+      </c>
+      <c r="D121" s="3">
+        <v>-20463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>1535</v>
       </c>
       <c r="B122">
         <v>-20649</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122">
+        <v>1535</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-20649</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>1550</v>
       </c>
       <c r="B123">
         <v>-20824</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C123">
+        <v>1550</v>
+      </c>
+      <c r="D123" s="3">
+        <v>-20824</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>1564</v>
       </c>
       <c r="B124">
         <v>-21013</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C124">
+        <v>1564</v>
+      </c>
+      <c r="D124" s="2">
+        <v>-21013</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>1578</v>
       </c>
       <c r="B125">
         <v>-21174</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C125">
+        <v>1578</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-21174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>1593</v>
       </c>
       <c r="B126">
         <v>-21381</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C126">
+        <v>1593</v>
+      </c>
+      <c r="D126" s="2">
+        <v>-21381</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>1608</v>
       </c>
       <c r="B127">
         <v>-21534</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C127">
+        <v>1608</v>
+      </c>
+      <c r="D127" s="3">
+        <v>-21534</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>1622</v>
       </c>
       <c r="B128">
         <v>-21753</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C128">
+        <v>1622</v>
+      </c>
+      <c r="D128" s="2">
+        <v>-21753</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>1637</v>
       </c>
       <c r="B129">
         <v>-21910</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C129">
+        <v>1637</v>
+      </c>
+      <c r="D129" s="3">
+        <v>-21910</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>1651</v>
       </c>
       <c r="B130">
         <v>-22121</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C130">
+        <v>1651</v>
+      </c>
+      <c r="D130" s="2">
+        <v>-22121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>1667</v>
       </c>
       <c r="B131">
         <v>-22269</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C131">
+        <v>1667</v>
+      </c>
+      <c r="D131" s="3">
+        <v>-22269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>1681</v>
       </c>
       <c r="B132">
         <v>-22480</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C132">
+        <v>1681</v>
+      </c>
+      <c r="D132" s="2">
+        <v>-22480</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>1695</v>
       </c>
       <c r="B133">
         <v>-22625</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C133">
+        <v>1695</v>
+      </c>
+      <c r="D133" s="3">
+        <v>-22625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>1710</v>
       </c>
       <c r="B134">
         <v>-22844</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C134">
+        <v>1710</v>
+      </c>
+      <c r="D134" s="2">
+        <v>-22844</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>1724</v>
       </c>
       <c r="B135">
         <v>-22993</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C135">
+        <v>1724</v>
+      </c>
+      <c r="D135" s="3">
+        <v>-22993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>1739</v>
       </c>
       <c r="B136">
         <v>-23190</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C136">
+        <v>1739</v>
+      </c>
+      <c r="D136" s="2">
+        <v>-23190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>1754</v>
       </c>
       <c r="B137">
         <v>-23359</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C137">
+        <v>1754</v>
+      </c>
+      <c r="D137" s="3">
+        <v>-23359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>1768</v>
       </c>
       <c r="B138">
         <v>-23550</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C138">
+        <v>1768</v>
+      </c>
+      <c r="D138" s="2">
+        <v>-23550</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>1782</v>
       </c>
       <c r="B139">
         <v>-23733</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C139">
+        <v>1782</v>
+      </c>
+      <c r="D139" s="3">
+        <v>-23733</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>1798</v>
       </c>
       <c r="B140">
         <v>-23908</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C140">
+        <v>1798</v>
+      </c>
+      <c r="D140" s="2">
+        <v>-23908</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>1812</v>
       </c>
       <c r="B141">
         <v>-24099</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C141">
+        <v>1812</v>
+      </c>
+      <c r="D141" s="3">
+        <v>-24099</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>1826</v>
       </c>
       <c r="B142">
         <v>-24264</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C142">
+        <v>1826</v>
+      </c>
+      <c r="D142" s="2">
+        <v>-24264</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>1841</v>
       </c>
       <c r="B143">
         <v>-24471</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C143">
+        <v>1841</v>
+      </c>
+      <c r="D143" s="3">
+        <v>-24471</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>1855</v>
       </c>
       <c r="B144">
         <v>-24629</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C144">
+        <v>1855</v>
+      </c>
+      <c r="D144" s="2">
+        <v>-24629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>1870</v>
       </c>
       <c r="B145">
         <v>-24839</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C145">
+        <v>1870</v>
+      </c>
+      <c r="D145" s="3">
+        <v>-24839</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>1885</v>
       </c>
       <c r="B146">
         <v>-24989</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C146">
+        <v>1885</v>
+      </c>
+      <c r="D146" s="2">
+        <v>-24989</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>1899</v>
       </c>
       <c r="B147">
         <v>-25201</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C147">
+        <v>1899</v>
+      </c>
+      <c r="D147" s="3">
+        <v>-25201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>1913</v>
       </c>
       <c r="B148">
         <v>-25347</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C148">
+        <v>1913</v>
+      </c>
+      <c r="D148" s="2">
+        <v>-25347</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>1929</v>
       </c>
       <c r="B149">
         <v>-25568</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C149">
+        <v>1929</v>
+      </c>
+      <c r="D149" s="3">
+        <v>-25568</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>1943</v>
       </c>
       <c r="B150">
         <v>-25705</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C150">
+        <v>1943</v>
+      </c>
+      <c r="D150" s="2">
+        <v>-25705</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>1957</v>
       </c>
       <c r="B151">
         <v>-25918</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C151">
+        <v>1957</v>
+      </c>
+      <c r="D151" s="3">
+        <v>-25918</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>1972</v>
       </c>
       <c r="B152">
         <v>-26079</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C152">
+        <v>1972</v>
+      </c>
+      <c r="D152" s="2">
+        <v>-26079</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>1986</v>
       </c>
       <c r="B153">
         <v>-26284</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C153">
+        <v>1986</v>
+      </c>
+      <c r="D153" s="3">
+        <v>-26284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>2001</v>
       </c>
       <c r="B154">
+        <v>-26453</v>
+      </c>
+      <c r="C154">
+        <v>2001</v>
+      </c>
+      <c r="D154" s="2">
         <v>-26453</v>
       </c>
     </row>

--- a/ExperimentalData/MotorParameterData.xlsx
+++ b/ExperimentalData/MotorParameterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmvsu\OneDrive\Documents\School Winter 2018\elec 391\Laser-Light-Show\ExperimentalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E64201C-E9A5-43A6-9517-2035739AD1F4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D5A8D-BA62-4F58-91CB-5FCA634355A8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="19200" windowHeight="7188" activeTab="1" xr2:uid="{453B5560-B02B-49E5-A604-6A12C721B6F9}"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="19200" windowHeight="7188" activeTab="1" xr2:uid="{453B5560-B02B-49E5-A604-6A12C721B6F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -5213,7 +5213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C796C4-C56C-41DE-8C1B-9F60B7546137}">
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
       <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
@@ -5347,7 +5347,7 @@
         <v>-132</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E6:E69" si="0">(D10-D8)/(C10-C8)</f>
+        <f t="shared" ref="E9:E21" si="0">(D10-D8)/(C10-C8)</f>
         <v>-5.7</v>
       </c>
     </row>
